--- a/console/Elastic-Compute/Virtual-Machine/components/compute/multipleIpInput.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/compute/multipleIpInput.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>input_ip_address</t>
   </si>
@@ -30,27 +30,15 @@
     <t>assign_ip_tips_one</t>
   </si>
   <si>
-    <t>It will</t>
-  </si>
-  <si>
     <t>assign_ip_tips_two</t>
   </si>
   <si>
-    <t>Private IP will be automatically allocated in the section</t>
-  </si>
-  <si>
     <t>assign_ip_tips_three</t>
   </si>
   <si>
-    <t>If customization is selected, please</t>
-  </si>
-  <si>
     <t>assign_ip_tips_four</t>
   </si>
   <si>
-    <t>assign private IP in the section; if customized private IP is selected, VM instance batch creation is not supported yet</t>
-  </si>
-  <si>
     <t>auto_assign</t>
   </si>
   <si>
@@ -66,9 +54,6 @@
     <t>error_tips</t>
   </si>
   <si>
-    <t>'IP address has been already assigned';</t>
-  </si>
-  <si>
     <t>input_legal_ipadress</t>
   </si>
   <si>
@@ -78,15 +63,9 @@
     <t>error_tips_one</t>
   </si>
   <si>
-    <t>'This IP address is not'</t>
-  </si>
-  <si>
     <t>error_tips_two</t>
   </si>
   <si>
-    <t>'Within or has been reserved';</t>
-  </si>
-  <si>
     <t>error_tips_three</t>
   </si>
   <si>
@@ -100,29 +79,252 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
+      <t>请输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>自动分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>自定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址已被占用，请更换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>请输入合法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>系统将自动分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>将在</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>XXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区间内自动分配内网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private IP will be automatically allocated within XXX.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>若选择自定义，请在</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>请输入</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区间内指定内网</t>
     </r>
     <r>
       <rPr>
@@ -138,20 +340,10 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>区间内自动分配内网</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，若选择自定义内网</t>
     </r>
     <r>
       <rPr>
@@ -162,16 +354,32 @@
       </rPr>
       <t>IP</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>区间内指定内网</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，暂不支持批量创建云主机</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please choose from xxx for customized setting,  if customized private IP is selected, VM instance batch creation is not supported yet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该</t>
     </r>
     <r>
       <rPr>
@@ -187,105 +395,29 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>，若选择自定义内网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>，暂不支持批量创建云主机</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>自动分配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">' </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>自定义</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">' </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>该</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>地址已被占用，请更换</t>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址不在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> xxx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内或已被预留</t>
     </r>
     <r>
       <rPr>
@@ -296,141 +428,22 @@
       </rPr>
       <t>';</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>请输入合法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>该</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>地址不在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>内或已被预留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>系统将自动分配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>';</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This IP address is not within xxx or has been reserved.';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP address has been already assigned, please change another IP';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,6 +470,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -478,9 +498,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -820,158 +858,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="132.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="35.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C12 A1:A12" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 A1:A12 C12 C6:C7 C9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>